--- a/64 Informes de investigación.xlsx
+++ b/64 Informes de investigación.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Informes de investigación</t>
   </si>
@@ -22,16 +22,7 @@
     <t>Nombre del Grupo</t>
   </si>
   <si>
-    <t>INVEMAR - Ecología Pesquera</t>
-  </si>
-  <si>
-    <t>Grupo de Biotecnología Ambiental e Industrial</t>
-  </si>
-  <si>
-    <t>Grupo de Investigación y Asesoría en Estadística</t>
-  </si>
-  <si>
-    <t>Cuencas hidrográficas</t>
+    <t>ECOLOGIA, INGENIERIA Y SOCIEDAD - EIS</t>
   </si>
   <si>
     <t>Agua y Saneamiento</t>
@@ -40,32 +31,13 @@
     <t>INVEMAR - Calidad Ambiental Marina</t>
   </si>
   <si>
+    <t>Gestión Integrada de Recursos Hídricos</t>
+  </si>
+  <si>
     <t>Grupo de Estudios Ambientales para la Sostenibilidad, la Innovación y el Desarrollo GEASID</t>
   </si>
   <si>
-    <t>GRUPO DE INNOVACION Y DESARROLLO TECNOLOGICO DE UNISANGIL - IDENTUS</t>
-  </si>
-  <si>
-    <t>GRUPO DE INVESTIGACIÓN EN BIODIVERSIDAD Y DESARROLLO AMAZONICO,  ¿BYDA¿</t>
-  </si>
-  <si>
-    <t>Taxonomía, Sistemática y Ecología Marina</t>
-  </si>
-  <si>
-    <t>INVESTIGACION UNIVERSITARIA EN TECNOLOGIAS DE LA INFORMACION Y LA COMUNICACIÓN - IUTIC</t>
-  </si>
-  <si>
-    <t>18.- Informes de investigación : Fortalecimiento del monitoreo de la calidad del agua, del ecosistema de manglar y de los recursos pesqueros de la Ciénaga Grande de Santa Marta. Informe Técnico Final 2016  2016, Proyecto de investigación: Fortalecimiento del monitoreo de la calidad del agua, del ecosistema de manglar y de los recursos pesqueros de la Ciénaga Grande de Santa Marta  Autores: EFRAIN ALBERTO VILORIA MAESTRE, SARITH TATIANA SALAS CASTRO, MARIO ENRIQUE RUEDA HERNANDEZ 
- 36.- Informes de investigación : Fortalecimiento del monitoreo de la calidad del agua, del ecosistema de manglar y de los recursos pesqueros de la Ciénaga Grande de Santa Marta 2015  2015, Proyecto de investigación: Investigación básica y aplicada de los recursos naturales renovables y del medio ambiente en los litorales y ecosistemas marinos y oceánicos de interés nacional  Autores: SARITH TATIANA SALAS CASTRO, EFRAIN ALBERTO VILORIA MAESTRE, FABIAN DAVID ESCOBAR TOLEDO, MARIO ENRIQUE RUEDA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>21.- Informes de investigación : Informe Final del Proyecto Monitoreo y Diagnóstico de la Calidad del Agua del Río Bogotá y su Impacto en la Salud de las Comunidades  2004, Proyecto de investigación: Autores: MARIA CLAUDIA CAMPOS PINILLA</t>
-  </si>
-  <si>
-    <t>12.- Informes de investigación : Diseño de una red para el monitoreo de la calidad del agua en el Rio La Vieja  2003, Proyecto de investigación: Gestión Intercorporativa para la formulación de lineamientos en el manejo del recurso hídrico de la cuenca del Río La Vieja  Autores: LUIS HERNANDO HURTADO TOBON</t>
-  </si>
-  <si>
-    <t>6.- Informes de investigación : Elaboración de Curvas de Gasto para 22 Puntos de Monitoreo Priorizados en Jurisdicción de CRQ  2019, Proyecto de investigación: Ordenamiento del Recurso Hídrico del Río Roble y Definición de Objetivos de Calidad del Agua Superficial En Fuentes Receptoras de Vertimientos  Autores: MIGUEL IGNACIO BARRIOS PENA</t>
+    <t>16.- Informes de investigación : PARTNERING FOR ADAPTATION AND RESILIENCE ¿ AGUA (PARA-AGUA) PROJECT  2016, Proyecto de investigación: Propuesta para diseño de un sistema de monitoreo climatológico para la cuenca del río Guatapurí y construcción de capacidades en el manejo de la herramienta weap, grupo de modelamientos cuenca del río chinchina.  Autores: JUAN MAURICIO CASTANO ROJAS, JUAN CAMILO BERRIO CARVAJAL, CARLOS ANDRES SABAS RAMIREZ, JULY ANDREA TABORDA RIOS, SANTIAGO RESTREPO CALLE</t>
   </si>
   <si>
     <t>35.- Informes de investigación : Apoyo para la extensión de la acreditación ante IDEAM en aforo y toma de muestras para los programas de monitoreo de aguas que adelanta la CARDER  2013, Proyecto de investigación: Apoyo para la extensión de la acreditación ante IDEAM en aforo y toma de muestras para los programas de monitoreo de aguas que adelanta la CARDER Autores: DIEGO PAREDES CUERVO</t>
@@ -106,24 +78,14 @@
  153.- Informes de investigación : PROTOCOLO DE MONITOREO DE LAS AGUAS DE LASTRE DE LOS BUQUES QUE INGRESAN AL PUERTO DE SANTA MARTA  2014, Proyecto de investigación: LEVANTAMIENTO DE LAS ESPECIES DE FITOPLANCTON Y CALIDAD SANITARIA DE LAS AGUAS DE LASTRE EN BUQUES CARBONEROS Y SU IMPACTO EN LA BAHIA DE SANTA MARTA  Autores: NATALIA MARIA ARBELAEZ MERIZALDE, EDGAR ARTEAGA SOGAMOSO, LAURA VICTORIA PERDOMO TRUJILLO, LUISA FERNANDA ESPINOSA DIAZ</t>
   </si>
   <si>
+    <t>24.- Informes de investigación : Producto 5: Selección de casos de estudio y propuesta de plan de implementación, monitoreo y seguimiento - objetivo 4  2012, Proyecto de investigación: Elaboración de una propuesta para la reglamentación del reuso del agua en Colombia, en el marco del convenio interadministrativo #24 entre el Ministerio de Ambiente y Desarrollo Sostenible y la Universidad del Valle. Autores: ALBERTO GALVIS CASTANO, DIANA AMPARO CARDONA ZEA, EFRAIN ALBERTO JIMENEZ RIOS, FABER ANDREY MONTANA DUQUE, IRMA JANETH SANABRIA GOMEZ, JULIO CESAR MOSCOSO CAVALLINI, LEIDY JOHANA OVIEDO VICTORIA, MARCELA ULLOA, PAOLA ANDREA MOSQUERA ARIAS, RUBEN DARIO PINZON CAMACHO 
+ 53.- Informes de investigación : Sistema sostenible de monitoreo local del sector agua  2011, Proyecto de investigación: Adaptación al cambio climático en la Colombia rural: el papel de la gobernanza del agua. IDRC Canadá. Autores: INES RESTREPO TARQUINO 
+ 76.- Informes de investigación : Informe de campaña de monitoreo y seguimiento de la pluma de contaminación de la descarga del Canal Sur en el río Cauca  2009, Proyecto de investigación: Centinela de la calidad del agua del río Cauca mediante la instalación de un sistema de alerta temprana para las plantas de potabilización de Puerto Mallarino y río Cauca Autores: ALBERTO GALVIS CASTANO 
+ 101.- Informes de investigación : Plan de Monitoreo para la Caracterización de las Aguas Residuales de la Ciudad de Buga  2007, Proyecto de investigación: Diagnostico participativo, formulación, selección y prediseño hidráulico de la alternativa tecnológica de tratamiento para las aguas residuales del municipio de Buga - Descontaminación del humedal "El Conchal"-Valle del Cauca  Autores: ALBERTO GALVIS CASTANO</t>
+  </si>
+  <si>
     <t>16.- Informes de investigación : Análisis de correlaciones canónicas y de componentes principales como validación estadística del análisis de calidad de aguas utilizando datos físico químicos y microbiológicos de la primera campaña de monitoreo de las corrientes de la Subcuenca de la quebrada La Gómez y ciénaga de Paredes, Sabana d  2015, Proyecto de investigación: Aunar esfuerzos tecnicos, administrativos y financieros para el desarrollo del proyecto línea base para el ordenamiento del recurso hídrico de la subcuenca hidrográfica de la quebrada la Gómez, ciénaga de Paredes, santos Gutierrez, Pescado, Islitas y Caño  Autores: WILLIAM GUERRERO SALAZAR, FRANK CARLOS VARGAS TANGUA 
  21.- Informes de investigación : Análisis de correlaciones canónicas y de componentes principales como validación estadística del análisis de calidad de aguas utilizando datos físico químicos y microbiológicos de la primera campaña de monitoreo de las corrientes de la Subcuenca de la quebrada La Gómez y ciénaga de Paredes, Sabana d  2015, Proyecto de investigación: LINEA BASE PARA EL ORDENAMIENTO DEL RECURSO HÍDRICO DE LA SUBCUENCA HIDROGRÁFICA DE LAS QUEBRADAS LA GÓMEZ, SANTOS GUTIÉRREZ, PESCADO, ISLITAS, CAÑO PERUETANO Y CIÉNAGA PAREDES UBICADA EN LOS MUNICIPIOS DE SABANA DE TORRES Y PUERTO WILCHES, SANTANDER  Autores: JULIO CESAR CALVO CORREDOR</t>
-  </si>
-  <si>
-    <t>18.- Informes de investigación : Diseño y desarrollo de un sistema robótico basado en un vehículo aéreo no tripulado para monitoreo de calidad del agua superficial.  2019, Proyecto de investigación: Diseño y desarrollo de un sistema robótico basado en un vehículo aéreo no tripulado para monitoreo de calidad del agua superficial.  Autores: ANA ROCIO CORDOBA MALAVER</t>
-  </si>
-  <si>
-    <t>5.- Informes de investigación : Estudio de la diversidad de macro invertebrados acuáticos como indicadores de calidad del agua mediante la aplicación de la técnica del monitorio participativo en el municipio de Belén de los Andaquies y la inspección de Yurayaco (Caquetá)  2018, Proyecto de investigación: Monitoreo participativo para conocer el estado de las fuentes hídricas presente en el territorio: macro-invertebrados acuáticos, ACT  Autores: JULIETTE PAULINE CHAUX ROJAS, BETSELENE MURCIA ORDONEZ 
- 17.- Informes de investigación : Construcción e implementación del programa de monitoreo de la calidad del recurso hídrico de las microcuencas del río San Pedro y río Fragua Chorroso en el municipio de San José del Fragua  2016, Proyecto de investigación: Construcción e implementación del programa de monitoreo de la calidad del recurso hídrico de las microcuencas del río San Pedro y río Fragua Chorroso en el municipio de San José del Fragua  Autores: LUIS CARLOS CHAVES MORENO</t>
-  </si>
-  <si>
-    <t>7.- Informes de investigación : Monitoreo de las condiciones ambientales y los cambios estructurales y funcionales de las comunidades vegetales y de los recursos pesqueros durante la rehabilitación de la Ciénaga Grande de Santa Marta. Informe Técnico Final 2020, Volumen 19. Santa Marta 193p. + Anexos  2020, Proyecto de investigación: Fortalecimiento al monitoreo calidad del agua, del ecosistema de manglar y de los recursos pesqueros de la Ciénaga Grande de Santa Marta  Autores: MARIA ALEJANDRA MUTIS MARTINEZGUERRA 
- 13.- Informes de investigación : Monitoreo de las condiciones ambientales y los cambios estructurales y funcionales de las comunidades vegetales y de los recursos pesqueros durante la rehabilitación de la Ciénaga Grande de Santa Marta. Informe Técnico Final 2019, Volumen 18. Santa Marta 214 p + anexos.  2019, Proyecto de investigación: Fortalecimiento al monitoreo calidad del agua, del ecosistema de manglar y de los recursos pesqueros de la Ciénaga Grande de Santa Marta  Autores: MARIA ALEJANDRA MUTIS MARTINEZGUERRA 
- 138.- Informes de investigación : Monitoreo de la calidad de aguas marino-costeras y caracterización biológica del terminal marítimo de Santa Marta  2013, Proyecto de investigación: Monitoreo de la calidad de aguas marino-costeras y caracterización biológica del terminal marítimo de Santa Marta  Autores: ANDREA POLANCO FERNANDEZ, ERIKA MONTOYA CADAVID, ADRIANA GRACIA, PAOLA FLOREZ, ANDRES MERCHAN CEPEDA, CHRISTIAN MICHAEL DIAZ SANCHEZ, LUIS HERNAN CHASQUI VELASCO, DAVID ALEJANDRO ALONSO CARVAJAL, JOHANNA CAROLINA VEGA SEQUEDA, VANESSA YEPES NARVAEZ 
- 139.- Informes de investigación : Monitoreo de la calidad de aguas marino-costeras y caracterización biológica del terminal marítimo de Santa Marta  2013, Proyecto de investigación: Monitoreo de la calidad de aguas marino-costeras y caracterización biológica del terminal marítimo de Santa Marta.  Autores: ERIKA MONTOYA CADAVID, ANDRES MERCHAN CEPEDA, ADRIANA GRACIA, PAOLA FLOREZ, CHRISTIAN MICHAEL DIAZ SANCHEZ, ANDREA POLANCO FERNANDEZ, DAVID ALONSO CARVAJAL, LUIS HERNAN CHASQUI VELASCO, JOHANNA VEGA, VANESSA YEPES NARVAEZ</t>
-  </si>
-  <si>
-    <t>13.- Informes de investigación : Informe Final: Prototipo de un sistema de monitoreo y control del consumo de agua empleada en el riego de cultivos tradicionales en el municipio de Chiquinquirá - Boyacá  2018, Proyecto de investigación: Prototipo funcional de un sistema de monitoreo de la humedad del suelo en cultivos tradicionales para dosificar el uso de agua en el riego  Autores: HECTOR FELIPE CORTES ROJAS</t>
   </si>
 </sst>
 </file>
@@ -481,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -500,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -508,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -516,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -524,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -532,55 +494,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
